--- a/주소록/주소록 샘플 데이터(2023-06-30).xlsx
+++ b/주소록/주소록 샘플 데이터(2023-06-30).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505233\Documents\workspace\dbms\주소록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C99CC79-8A32-4670-A9F2-339BE27FB41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB7FD36-B5E3-48E3-9A25-0B20D0381C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주소정보" sheetId="1" r:id="rId1"/>
@@ -4187,7 +4187,7 @@
   <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13374,10 +13374,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5A0F48-2660-4374-ADD0-0E4F56E02499}">
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13385,13 +13385,12 @@
     <col min="1" max="2" width="9" style="12"/>
     <col min="3" max="3" width="14.375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="27.625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="5" max="5" width="21.375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>781</v>
       </c>
@@ -13404,9 +13403,8 @@
       <c r="D1" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>783</v>
       </c>
@@ -13419,9 +13417,8 @@
       <c r="D2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>784</v>
       </c>
@@ -13434,9 +13431,8 @@
       <c r="D3" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>785</v>
       </c>
@@ -13449,9 +13445,8 @@
       <c r="D4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>786</v>
       </c>
@@ -13464,9 +13459,8 @@
       <c r="D5" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>787</v>
       </c>
@@ -13479,9 +13473,8 @@
       <c r="D6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>788</v>
       </c>
@@ -13494,9 +13487,8 @@
       <c r="D7" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>789</v>
       </c>
@@ -13509,9 +13501,8 @@
       <c r="D8" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>790</v>
       </c>
@@ -13524,9 +13515,8 @@
       <c r="D9" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>791</v>
       </c>
@@ -13539,9 +13529,8 @@
       <c r="D10" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>792</v>
       </c>
@@ -13554,9 +13543,8 @@
       <c r="D11" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>793</v>
       </c>
@@ -13569,9 +13557,8 @@
       <c r="D12" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>794</v>
       </c>
@@ -13584,9 +13571,8 @@
       <c r="D13" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>795</v>
       </c>
@@ -13599,9 +13585,8 @@
       <c r="D14" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>796</v>
       </c>
@@ -13614,9 +13599,8 @@
       <c r="D15" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>797</v>
       </c>
@@ -13629,9 +13613,8 @@
       <c r="D16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>798</v>
       </c>
@@ -13644,9 +13627,8 @@
       <c r="D17" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>799</v>
       </c>
@@ -13659,9 +13641,8 @@
       <c r="D18" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>800</v>
       </c>
@@ -13674,9 +13655,8 @@
       <c r="D19" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>801</v>
       </c>
@@ -13689,9 +13669,8 @@
       <c r="D20" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>802</v>
       </c>
@@ -13704,9 +13683,8 @@
       <c r="D21" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>803</v>
       </c>
@@ -13719,9 +13697,8 @@
       <c r="D22" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>804</v>
       </c>
@@ -13734,9 +13711,8 @@
       <c r="D23" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>805</v>
       </c>
@@ -13749,9 +13725,8 @@
       <c r="D24" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>806</v>
       </c>
@@ -13764,9 +13739,8 @@
       <c r="D25" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>807</v>
       </c>
@@ -13779,9 +13753,8 @@
       <c r="D26" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>808</v>
       </c>
@@ -13794,9 +13767,8 @@
       <c r="D27" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>809</v>
       </c>
@@ -13809,9 +13781,8 @@
       <c r="D28" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>810</v>
       </c>
@@ -13824,9 +13795,8 @@
       <c r="D29" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>811</v>
       </c>
@@ -13839,9 +13809,8 @@
       <c r="D30" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>812</v>
       </c>
@@ -13854,9 +13823,8 @@
       <c r="D31" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>813</v>
       </c>
@@ -13869,9 +13837,8 @@
       <c r="D32" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>814</v>
       </c>
@@ -13884,9 +13851,8 @@
       <c r="D33" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>815</v>
       </c>
@@ -13899,9 +13865,8 @@
       <c r="D34" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>816</v>
       </c>
@@ -13914,9 +13879,8 @@
       <c r="D35" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>817</v>
       </c>
@@ -13929,9 +13893,8 @@
       <c r="D36" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>818</v>
       </c>
@@ -13944,9 +13907,8 @@
       <c r="D37" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>819</v>
       </c>
@@ -13959,9 +13921,8 @@
       <c r="D38" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>820</v>
       </c>
@@ -13974,9 +13935,8 @@
       <c r="D39" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>821</v>
       </c>
@@ -13989,9 +13949,8 @@
       <c r="D40" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="16"/>
-    </row>
-    <row r="41" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>822</v>
       </c>
@@ -14004,9 +13963,8 @@
       <c r="D41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>823</v>
       </c>
@@ -14019,9 +13977,8 @@
       <c r="D42" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>824</v>
       </c>
@@ -14034,9 +13991,8 @@
       <c r="D43" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>825</v>
       </c>
@@ -14049,9 +14005,8 @@
       <c r="D44" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>826</v>
       </c>
@@ -14064,9 +14019,8 @@
       <c r="D45" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>827</v>
       </c>
@@ -14079,9 +14033,8 @@
       <c r="D46" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>828</v>
       </c>
@@ -14094,9 +14047,8 @@
       <c r="D47" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="16"/>
-    </row>
-    <row r="48" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>829</v>
       </c>
@@ -14109,9 +14061,8 @@
       <c r="D48" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>830</v>
       </c>
@@ -14124,9 +14075,8 @@
       <c r="D49" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="16"/>
-    </row>
-    <row r="50" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>831</v>
       </c>
@@ -14139,9 +14089,8 @@
       <c r="D50" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>832</v>
       </c>
@@ -14154,9 +14103,8 @@
       <c r="D51" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>833</v>
       </c>
@@ -14169,9 +14117,8 @@
       <c r="D52" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>834</v>
       </c>
@@ -14184,9 +14131,8 @@
       <c r="D53" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>835</v>
       </c>
@@ -14199,9 +14145,8 @@
       <c r="D54" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="16"/>
-    </row>
-    <row r="55" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>836</v>
       </c>
@@ -14214,9 +14159,8 @@
       <c r="D55" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E55" s="16"/>
-    </row>
-    <row r="56" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>837</v>
       </c>
@@ -14229,9 +14173,8 @@
       <c r="D56" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>838</v>
       </c>
@@ -14244,9 +14187,8 @@
       <c r="D57" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="16"/>
-    </row>
-    <row r="58" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>839</v>
       </c>
@@ -14259,9 +14201,8 @@
       <c r="D58" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E58" s="16"/>
-    </row>
-    <row r="59" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>840</v>
       </c>
@@ -14274,9 +14215,8 @@
       <c r="D59" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="16"/>
-    </row>
-    <row r="60" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>841</v>
       </c>
@@ -14289,9 +14229,8 @@
       <c r="D60" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E60" s="16"/>
-    </row>
-    <row r="61" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>842</v>
       </c>
@@ -14304,9 +14243,8 @@
       <c r="D61" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>843</v>
       </c>
@@ -14319,9 +14257,8 @@
       <c r="D62" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E62" s="16"/>
-    </row>
-    <row r="63" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>844</v>
       </c>
@@ -14334,9 +14271,8 @@
       <c r="D63" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="16"/>
-    </row>
-    <row r="64" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>845</v>
       </c>
@@ -14349,9 +14285,8 @@
       <c r="D64" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="E64" s="16"/>
-    </row>
-    <row r="65" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>846</v>
       </c>
@@ -14364,9 +14299,8 @@
       <c r="D65" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E65" s="16"/>
-    </row>
-    <row r="66" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>847</v>
       </c>
@@ -14379,9 +14313,8 @@
       <c r="D66" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>848</v>
       </c>
@@ -14394,9 +14327,8 @@
       <c r="D67" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>849</v>
       </c>
@@ -14409,9 +14341,8 @@
       <c r="D68" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E68" s="16"/>
-    </row>
-    <row r="69" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>850</v>
       </c>
@@ -14424,9 +14355,8 @@
       <c r="D69" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E69" s="16"/>
-    </row>
-    <row r="70" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>851</v>
       </c>
@@ -14439,9 +14369,8 @@
       <c r="D70" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E70" s="16"/>
-    </row>
-    <row r="71" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>852</v>
       </c>
@@ -14454,9 +14383,8 @@
       <c r="D71" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E71" s="16"/>
-    </row>
-    <row r="72" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>853</v>
       </c>
@@ -14469,9 +14397,8 @@
       <c r="D72" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E72" s="16"/>
-    </row>
-    <row r="73" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>854</v>
       </c>
@@ -14484,9 +14411,8 @@
       <c r="D73" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E73" s="16"/>
-    </row>
-    <row r="74" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>855</v>
       </c>
@@ -14499,9 +14425,8 @@
       <c r="D74" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E74" s="16"/>
-    </row>
-    <row r="75" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>856</v>
       </c>
@@ -14514,9 +14439,8 @@
       <c r="D75" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E75" s="16"/>
-    </row>
-    <row r="76" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>857</v>
       </c>
@@ -14529,9 +14453,8 @@
       <c r="D76" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E76" s="16"/>
-    </row>
-    <row r="77" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>858</v>
       </c>
@@ -14544,9 +14467,8 @@
       <c r="D77" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E77" s="16"/>
-    </row>
-    <row r="78" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>859</v>
       </c>
@@ -14559,9 +14481,8 @@
       <c r="D78" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E78" s="16"/>
-    </row>
-    <row r="79" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>860</v>
       </c>
@@ -14574,9 +14495,8 @@
       <c r="D79" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E79" s="16"/>
-    </row>
-    <row r="80" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>861</v>
       </c>
@@ -14589,9 +14509,8 @@
       <c r="D80" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E80" s="16"/>
-    </row>
-    <row r="81" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>862</v>
       </c>
@@ -14604,9 +14523,8 @@
       <c r="D81" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>863</v>
       </c>
@@ -14619,9 +14537,8 @@
       <c r="D82" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E82" s="16"/>
-    </row>
-    <row r="83" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>864</v>
       </c>
@@ -14634,9 +14551,8 @@
       <c r="D83" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E83" s="16"/>
-    </row>
-    <row r="84" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>865</v>
       </c>
@@ -14649,9 +14565,8 @@
       <c r="D84" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E84" s="16"/>
-    </row>
-    <row r="85" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>866</v>
       </c>
@@ -14664,9 +14579,8 @@
       <c r="D85" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E85" s="16"/>
-    </row>
-    <row r="86" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>867</v>
       </c>
@@ -14679,9 +14593,8 @@
       <c r="D86" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E86" s="16"/>
-    </row>
-    <row r="87" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>868</v>
       </c>
@@ -14694,9 +14607,8 @@
       <c r="D87" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E87" s="16"/>
-    </row>
-    <row r="88" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>869</v>
       </c>
@@ -14709,9 +14621,8 @@
       <c r="D88" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E88" s="16"/>
-    </row>
-    <row r="89" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>870</v>
       </c>
@@ -14724,9 +14635,8 @@
       <c r="D89" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E89" s="16"/>
-    </row>
-    <row r="90" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>871</v>
       </c>
@@ -14739,9 +14649,8 @@
       <c r="D90" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E90" s="16"/>
-    </row>
-    <row r="91" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>872</v>
       </c>
@@ -14754,9 +14663,8 @@
       <c r="D91" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E91" s="16"/>
-    </row>
-    <row r="92" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>873</v>
       </c>
@@ -14769,9 +14677,8 @@
       <c r="D92" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E92" s="16"/>
-    </row>
-    <row r="93" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>874</v>
       </c>
@@ -14784,9 +14691,8 @@
       <c r="D93" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E93" s="16"/>
-    </row>
-    <row r="94" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>875</v>
       </c>
@@ -14799,9 +14705,8 @@
       <c r="D94" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E94" s="16"/>
-    </row>
-    <row r="95" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>876</v>
       </c>
@@ -14814,9 +14719,8 @@
       <c r="D95" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E95" s="16"/>
-    </row>
-    <row r="96" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>877</v>
       </c>
@@ -14829,9 +14733,8 @@
       <c r="D96" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E96" s="16"/>
-    </row>
-    <row r="97" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>878</v>
       </c>
@@ -14844,9 +14747,8 @@
       <c r="D97" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E97" s="16"/>
-    </row>
-    <row r="98" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>879</v>
       </c>
@@ -14859,9 +14761,8 @@
       <c r="D98" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="E98" s="16"/>
-    </row>
-    <row r="99" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>880</v>
       </c>
@@ -14874,9 +14775,8 @@
       <c r="D99" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E99" s="16"/>
-    </row>
-    <row r="100" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>881</v>
       </c>
@@ -14889,9 +14789,8 @@
       <c r="D100" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E100" s="16"/>
-    </row>
-    <row r="101" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>882</v>
       </c>
@@ -14904,9 +14803,8 @@
       <c r="D101" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E101" s="16"/>
-    </row>
-    <row r="102" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>883</v>
       </c>
@@ -14919,9 +14817,8 @@
       <c r="D102" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E102" s="17"/>
-    </row>
-    <row r="103" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>884</v>
       </c>
@@ -14934,9 +14831,8 @@
       <c r="D103" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E103" s="17"/>
-    </row>
-    <row r="104" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>885</v>
       </c>
@@ -14949,9 +14845,8 @@
       <c r="D104" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E104" s="17"/>
-    </row>
-    <row r="105" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>886</v>
       </c>
@@ -14964,9 +14859,8 @@
       <c r="D105" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E105" s="17"/>
-    </row>
-    <row r="106" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>887</v>
       </c>
@@ -14979,9 +14873,8 @@
       <c r="D106" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E106" s="17"/>
-    </row>
-    <row r="107" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>888</v>
       </c>
@@ -14994,9 +14887,8 @@
       <c r="D107" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E107" s="17"/>
-    </row>
-    <row r="108" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>889</v>
       </c>
@@ -15009,9 +14901,8 @@
       <c r="D108" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E108" s="17"/>
-    </row>
-    <row r="109" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>890</v>
       </c>
@@ -15024,9 +14915,8 @@
       <c r="D109" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E109" s="17"/>
-    </row>
-    <row r="110" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>891</v>
       </c>
@@ -15039,9 +14929,8 @@
       <c r="D110" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="E110" s="17"/>
-    </row>
-    <row r="111" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>892</v>
       </c>
@@ -15054,9 +14943,8 @@
       <c r="D111" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E111" s="17"/>
-    </row>
-    <row r="112" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>893</v>
       </c>
@@ -15069,9 +14957,8 @@
       <c r="D112" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E112" s="17"/>
-    </row>
-    <row r="113" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>894</v>
       </c>
@@ -15084,9 +14971,8 @@
       <c r="D113" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E113" s="17"/>
-    </row>
-    <row r="114" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>895</v>
       </c>
@@ -15099,9 +14985,8 @@
       <c r="D114" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E114" s="17"/>
-    </row>
-    <row r="115" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>896</v>
       </c>
@@ -15114,9 +14999,8 @@
       <c r="D115" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E115" s="17"/>
-    </row>
-    <row r="116" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>897</v>
       </c>
@@ -15129,9 +15013,8 @@
       <c r="D116" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E116" s="17"/>
-    </row>
-    <row r="117" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>898</v>
       </c>
@@ -15144,9 +15027,8 @@
       <c r="D117" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E117" s="17"/>
-    </row>
-    <row r="118" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>899</v>
       </c>
@@ -15159,9 +15041,8 @@
       <c r="D118" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="E118" s="17"/>
-    </row>
-    <row r="119" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>900</v>
       </c>
@@ -15174,9 +15055,8 @@
       <c r="D119" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E119" s="17"/>
-    </row>
-    <row r="120" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>901</v>
       </c>
@@ -15189,9 +15069,8 @@
       <c r="D120" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E120" s="17"/>
-    </row>
-    <row r="121" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>902</v>
       </c>
@@ -15204,9 +15083,8 @@
       <c r="D121" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E121" s="17"/>
-    </row>
-    <row r="122" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>903</v>
       </c>
@@ -15219,9 +15097,8 @@
       <c r="D122" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E122" s="17"/>
-    </row>
-    <row r="123" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>904</v>
       </c>
@@ -15234,9 +15111,8 @@
       <c r="D123" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E123" s="17"/>
-    </row>
-    <row r="124" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>905</v>
       </c>
@@ -15249,9 +15125,8 @@
       <c r="D124" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="E124" s="17"/>
-    </row>
-    <row r="125" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>906</v>
       </c>
@@ -15264,9 +15139,8 @@
       <c r="D125" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E125" s="17"/>
-    </row>
-    <row r="126" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>907</v>
       </c>
@@ -15279,9 +15153,8 @@
       <c r="D126" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E126" s="17"/>
-    </row>
-    <row r="127" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>908</v>
       </c>
@@ -15294,9 +15167,8 @@
       <c r="D127" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="E127" s="17"/>
-    </row>
-    <row r="128" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>909</v>
       </c>
@@ -15309,9 +15181,8 @@
       <c r="D128" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="E128" s="17"/>
-    </row>
-    <row r="129" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>910</v>
       </c>
@@ -15324,9 +15195,8 @@
       <c r="D129" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E129" s="17"/>
-    </row>
-    <row r="130" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>911</v>
       </c>
@@ -15339,9 +15209,8 @@
       <c r="D130" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="E130" s="17"/>
-    </row>
-    <row r="131" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>912</v>
       </c>
@@ -15354,9 +15223,8 @@
       <c r="D131" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E131" s="17"/>
-    </row>
-    <row r="132" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>913</v>
       </c>
@@ -15369,9 +15237,8 @@
       <c r="D132" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E132" s="17"/>
-    </row>
-    <row r="133" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>914</v>
       </c>
@@ -15384,9 +15251,8 @@
       <c r="D133" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E133" s="17"/>
-    </row>
-    <row r="134" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>915</v>
       </c>
@@ -15399,9 +15265,8 @@
       <c r="D134" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E134" s="17"/>
-    </row>
-    <row r="135" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>916</v>
       </c>
@@ -15414,9 +15279,8 @@
       <c r="D135" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E135" s="17"/>
-    </row>
-    <row r="136" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>917</v>
       </c>
@@ -15429,9 +15293,8 @@
       <c r="D136" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E136" s="17"/>
-    </row>
-    <row r="137" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>918</v>
       </c>
@@ -15444,9 +15307,8 @@
       <c r="D137" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E137" s="17"/>
-    </row>
-    <row r="138" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>919</v>
       </c>
@@ -15459,9 +15321,8 @@
       <c r="D138" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="E138" s="17"/>
-    </row>
-    <row r="139" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>920</v>
       </c>
@@ -15474,9 +15335,8 @@
       <c r="D139" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="E139" s="17"/>
-    </row>
-    <row r="140" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>921</v>
       </c>
@@ -15489,9 +15349,8 @@
       <c r="D140" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="E140" s="17"/>
-    </row>
-    <row r="141" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>922</v>
       </c>
@@ -15504,9 +15363,8 @@
       <c r="D141" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E141" s="17"/>
-    </row>
-    <row r="142" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>923</v>
       </c>
@@ -15519,9 +15377,8 @@
       <c r="D142" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="E142" s="17"/>
-    </row>
-    <row r="143" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>924</v>
       </c>
@@ -15534,9 +15391,8 @@
       <c r="D143" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="E143" s="17"/>
-    </row>
-    <row r="144" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>925</v>
       </c>
@@ -15549,9 +15405,8 @@
       <c r="D144" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E144" s="17"/>
-    </row>
-    <row r="145" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>926</v>
       </c>
@@ -15564,9 +15419,8 @@
       <c r="D145" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E145" s="17"/>
-    </row>
-    <row r="146" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>927</v>
       </c>
@@ -15579,9 +15433,8 @@
       <c r="D146" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E146" s="17"/>
-    </row>
-    <row r="147" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>928</v>
       </c>
@@ -15594,9 +15447,8 @@
       <c r="D147" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="E147" s="17"/>
-    </row>
-    <row r="148" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>929</v>
       </c>
@@ -15609,9 +15461,8 @@
       <c r="D148" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E148" s="17"/>
-    </row>
-    <row r="149" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>930</v>
       </c>
@@ -15624,9 +15475,8 @@
       <c r="D149" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="E149" s="17"/>
-    </row>
-    <row r="150" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>931</v>
       </c>
@@ -15639,9 +15489,8 @@
       <c r="D150" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E150" s="17"/>
-    </row>
-    <row r="151" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>932</v>
       </c>
@@ -15654,9 +15503,8 @@
       <c r="D151" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="E151" s="17"/>
-    </row>
-    <row r="152" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>933</v>
       </c>
@@ -15669,9 +15517,8 @@
       <c r="D152" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E152" s="17"/>
-    </row>
-    <row r="153" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>934</v>
       </c>
@@ -15684,9 +15531,8 @@
       <c r="D153" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="E153" s="17"/>
-    </row>
-    <row r="154" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>935</v>
       </c>
@@ -15699,9 +15545,8 @@
       <c r="D154" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="E154" s="17"/>
-    </row>
-    <row r="155" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>936</v>
       </c>
@@ -15714,9 +15559,8 @@
       <c r="D155" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="E155" s="17"/>
-    </row>
-    <row r="156" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>937</v>
       </c>
@@ -15729,9 +15573,8 @@
       <c r="D156" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="E156" s="17"/>
-    </row>
-    <row r="157" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>938</v>
       </c>
@@ -15744,9 +15587,8 @@
       <c r="D157" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="E157" s="17"/>
-    </row>
-    <row r="158" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>939</v>
       </c>
@@ -15759,9 +15601,8 @@
       <c r="D158" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="E158" s="17"/>
-    </row>
-    <row r="159" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>940</v>
       </c>
@@ -15774,9 +15615,8 @@
       <c r="D159" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="E159" s="17"/>
-    </row>
-    <row r="160" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>941</v>
       </c>
@@ -15789,9 +15629,8 @@
       <c r="D160" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="E160" s="17"/>
-    </row>
-    <row r="161" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>942</v>
       </c>
@@ -15804,9 +15643,8 @@
       <c r="D161" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="E161" s="17"/>
-    </row>
-    <row r="162" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>943</v>
       </c>
@@ -15819,9 +15657,8 @@
       <c r="D162" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="E162" s="17"/>
-    </row>
-    <row r="163" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>944</v>
       </c>
@@ -15834,9 +15671,8 @@
       <c r="D163" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="E163" s="17"/>
-    </row>
-    <row r="164" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>945</v>
       </c>
@@ -15849,9 +15685,8 @@
       <c r="D164" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="E164" s="17"/>
-    </row>
-    <row r="165" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
         <v>946</v>
       </c>
@@ -15864,9 +15699,8 @@
       <c r="D165" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="E165" s="17"/>
-    </row>
-    <row r="166" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>947</v>
       </c>
@@ -15879,9 +15713,8 @@
       <c r="D166" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="E166" s="17"/>
-    </row>
-    <row r="167" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>948</v>
       </c>
@@ -15894,9 +15727,8 @@
       <c r="D167" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="E167" s="17"/>
-    </row>
-    <row r="168" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>949</v>
       </c>
@@ -15909,9 +15741,8 @@
       <c r="D168" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E168" s="17"/>
-    </row>
-    <row r="169" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>950</v>
       </c>
@@ -15924,9 +15755,8 @@
       <c r="D169" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="E169" s="17"/>
-    </row>
-    <row r="170" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>951</v>
       </c>
@@ -15939,9 +15769,8 @@
       <c r="D170" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E170" s="17"/>
-    </row>
-    <row r="171" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>952</v>
       </c>
@@ -15954,9 +15783,8 @@
       <c r="D171" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="E171" s="17"/>
-    </row>
-    <row r="172" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>953</v>
       </c>
@@ -15969,9 +15797,8 @@
       <c r="D172" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E172" s="17"/>
-    </row>
-    <row r="173" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>954</v>
       </c>
@@ -15984,9 +15811,8 @@
       <c r="D173" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="E173" s="17"/>
-    </row>
-    <row r="174" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>955</v>
       </c>
@@ -15999,9 +15825,8 @@
       <c r="D174" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="E174" s="17"/>
-    </row>
-    <row r="175" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
         <v>956</v>
       </c>
@@ -16014,9 +15839,8 @@
       <c r="D175" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="E175" s="17"/>
-    </row>
-    <row r="176" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>957</v>
       </c>
@@ -16029,9 +15853,8 @@
       <c r="D176" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="E176" s="17"/>
-    </row>
-    <row r="177" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>958</v>
       </c>
@@ -16044,9 +15867,8 @@
       <c r="D177" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="E177" s="17"/>
-    </row>
-    <row r="178" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>959</v>
       </c>
@@ -16059,9 +15881,8 @@
       <c r="D178" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="E178" s="17"/>
-    </row>
-    <row r="179" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>960</v>
       </c>
@@ -16074,9 +15895,8 @@
       <c r="D179" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="E179" s="17"/>
-    </row>
-    <row r="180" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>961</v>
       </c>
@@ -16089,9 +15909,8 @@
       <c r="D180" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="E180" s="17"/>
-    </row>
-    <row r="181" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>962</v>
       </c>
@@ -16104,9 +15923,8 @@
       <c r="D181" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="E181" s="17"/>
-    </row>
-    <row r="182" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>963</v>
       </c>
@@ -16119,9 +15937,8 @@
       <c r="D182" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="E182" s="17"/>
-    </row>
-    <row r="183" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>964</v>
       </c>
@@ -16134,9 +15951,8 @@
       <c r="D183" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="E183" s="17"/>
-    </row>
-    <row r="184" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="s">
         <v>965</v>
       </c>
@@ -16149,9 +15965,8 @@
       <c r="D184" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E184" s="17"/>
-    </row>
-    <row r="185" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>966</v>
       </c>
@@ -16164,9 +15979,8 @@
       <c r="D185" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="E185" s="17"/>
-    </row>
-    <row r="186" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
         <v>967</v>
       </c>
@@ -16179,9 +15993,8 @@
       <c r="D186" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="E186" s="17"/>
-    </row>
-    <row r="187" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>968</v>
       </c>
@@ -16194,9 +16007,8 @@
       <c r="D187" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="E187" s="17"/>
-    </row>
-    <row r="188" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="s">
         <v>969</v>
       </c>
@@ -16209,9 +16021,8 @@
       <c r="D188" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="E188" s="17"/>
-    </row>
-    <row r="189" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>970</v>
       </c>
@@ -16224,9 +16035,8 @@
       <c r="D189" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="E189" s="17"/>
-    </row>
-    <row r="190" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
         <v>971</v>
       </c>
@@ -16239,9 +16049,8 @@
       <c r="D190" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="E190" s="17"/>
-    </row>
-    <row r="191" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>972</v>
       </c>
@@ -16254,9 +16063,8 @@
       <c r="D191" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="E191" s="17"/>
-    </row>
-    <row r="192" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>973</v>
       </c>
@@ -16269,9 +16077,8 @@
       <c r="D192" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E192" s="17"/>
-    </row>
-    <row r="193" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
         <v>974</v>
       </c>
@@ -16284,9 +16091,8 @@
       <c r="D193" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E193" s="17"/>
-    </row>
-    <row r="194" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>975</v>
       </c>
@@ -16299,9 +16105,8 @@
       <c r="D194" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E194" s="17"/>
-    </row>
-    <row r="195" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>976</v>
       </c>
@@ -16314,9 +16119,8 @@
       <c r="D195" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="E195" s="17"/>
-    </row>
-    <row r="196" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>977</v>
       </c>
@@ -16329,9 +16133,8 @@
       <c r="D196" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="E196" s="17"/>
-    </row>
-    <row r="197" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
         <v>978</v>
       </c>
@@ -16344,9 +16147,8 @@
       <c r="D197" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="E197" s="17"/>
-    </row>
-    <row r="198" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>979</v>
       </c>
@@ -16359,9 +16161,8 @@
       <c r="D198" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="E198" s="17"/>
-    </row>
-    <row r="199" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>980</v>
       </c>
@@ -16374,9 +16175,8 @@
       <c r="D199" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="E199" s="17"/>
-    </row>
-    <row r="200" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
         <v>981</v>
       </c>
@@ -16389,9 +16189,8 @@
       <c r="D200" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="E200" s="17"/>
-    </row>
-    <row r="201" spans="1:5" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
         <v>982</v>
       </c>
@@ -16404,28 +16203,26 @@
       <c r="D201" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="E201" s="21"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D202" s="13"/>
-      <c r="E202" s="10"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D203" s="13"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D204" s="13"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D205" s="13"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D206" s="13"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D207" s="13"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D208" s="13"/>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.3">
@@ -18662,7 +18459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B49051-8859-473E-8CA5-E07FA620A0C3}">
   <dimension ref="A1:D391"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
